--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2067.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2067.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.15864818813847</v>
+        <v>1.305367469787598</v>
       </c>
       <c r="B1">
-        <v>2.917081615749185</v>
+        <v>3.767757654190063</v>
       </c>
       <c r="C1">
-        <v>4.441217053714369</v>
+        <v>3.983294010162354</v>
       </c>
       <c r="D1">
-        <v>3.028463321217242</v>
+        <v>2.908904790878296</v>
       </c>
       <c r="E1">
-        <v>1.207488653360296</v>
+        <v>1.049429059028625</v>
       </c>
     </row>
   </sheetData>
